--- a/deploy/系统部署核对单.xlsx
+++ b/deploy/系统部署核对单.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主要过程" sheetId="1" r:id="rId1"/>
+    <sheet name="更新操作记录（倒序）" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>暂停所有服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +219,45 @@
   </si>
   <si>
     <t>图标是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录更新日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否更新正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾军毅</t>
+  </si>
+  <si>
+    <t>build1145</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +265,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +292,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +330,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,10 +355,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -288,11 +371,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -773,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -784,9 +901,10 @@
     <col min="1" max="1" width="57" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -796,8 +914,11 @@
       <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -808,7 +929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -819,7 +940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -830,7 +951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -839,7 +960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -848,7 +969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -857,7 +978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -866,14 +987,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -884,7 +1005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -893,7 +1014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -902,14 +1023,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -920,7 +1041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,7 +1050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1201,7 +1322,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C10:C12 C14:C17 C19:C22 C24:C27 C29:C30 C32:C33 C35:C42 C1:C8 C46:C1048576 B44:C44 B1:B43">
+  <conditionalFormatting sqref="C10:C12 C14:C17 C19:C22 C24:C27 C29:C30 C32:C33 C35:C42 C1:C8 C46:C1048576 B44:C44 B1:B43 E1">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"否"</formula>
     </cfRule>
@@ -1278,6 +1399,82 @@
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" location="'更新操作记录（倒序）'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>43217.875</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"曾军毅,陈小龙,唐剑,鲁建勇,丁康,黄虎,蔡晓萍,陈昭,杨柳"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/deploy/系统部署核对单.xlsx
+++ b/deploy/系统部署核对单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="主要过程" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
   <si>
     <t>暂停所有服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,42 @@
   </si>
   <si>
     <t>build1145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾军毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈昭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡晓萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁建勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈小龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +302,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -377,10 +413,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,27 +425,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -892,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1409,11 +1425,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1423,9 +1439,10 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
@@ -1445,7 +1462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>43217.875</v>
       </c>
@@ -1465,14 +1482,62 @@
         <v>58</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
       <formula1>"曾军毅,陈小龙,唐剑,鲁建勇,丁康,黄虎,蔡晓萍,陈昭,杨柳"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>$H$2:$H$15</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deploy/系统部署核对单.xlsx
+++ b/deploy/系统部署核对单.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="主要过程" sheetId="1" r:id="rId1"/>
     <sheet name="更新操作记录（倒序）" sheetId="2" r:id="rId2"/>
+    <sheet name="数据库操作" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
   <si>
     <t>暂停所有服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图标是否正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>记录更新日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +291,148 @@
   </si>
   <si>
     <t>陈小龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行配置文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行所有配置文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标，logo是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title oracle export</t>
+  </si>
+  <si>
+    <t>exp libra_qti/libra_qti@172.16.16.129:1521/orcl file=d:\201805151506.dmp</t>
+  </si>
+  <si>
+    <t>pause;</t>
+  </si>
+  <si>
+    <t>set serveroutput on;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECLARE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  v_table tabs.table_name%TYPE; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  v_sql VARCHAR2(888); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sqltemp VARCHAR2(200); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tabC int;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  v_q NUMBER; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CURSOR c1 IS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SELECT table_name tn FROM user_tables; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TYPE c IS REF CURSOR; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  c2 c; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEGIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DBMS_OUTPUT.PUT_LINE('以下为空数据表的表名:');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tabC := 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FOR r1 IN c1 LOOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    v_table :=r1.tn; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    v_sql :='SELECT COUNT(*) q FROM '||v_table; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OPEN c2 FOR v_sql; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      FETCH c2 INTO v_q; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      EXIT WHEN c2%NOTFOUND; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      IF v_q=0 THEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sqltemp := 'alter table ' || v_table || ' allocate extent';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        DBMS_OUTPUT.PUT_LINE(sqltemp || ';');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        EXECUTE IMMEDIATE (sqltemp); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tabC := tabC + 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      END IF; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    END LOOP; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CLOSE c2; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  END LOOP;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DBMS_OUTPUT.PUT_LINE('已成功执行' || tabC || '个空表。');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  EXCEPTION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  WHEN OTHERS THEN DBMS_OUTPUT.PUT_LINE('Error occurred'); </t>
+  </si>
+  <si>
+    <t>END;</t>
+  </si>
+  <si>
+    <t>/* 数据库导出 */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* 处理空表 */</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -420,12 +559,156 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -906,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -917,6 +1200,7 @@
     <col min="1" max="1" width="57" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="9.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -930,8 +1214,11 @@
       <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="E1" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -944,6 +1231,7 @@
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -955,6 +1243,7 @@
       <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -966,6 +1255,7 @@
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -975,6 +1265,7 @@
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -984,6 +1275,7 @@
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -993,6 +1285,7 @@
       <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1002,6 +1295,7 @@
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -1009,6 +1303,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -1020,6 +1315,9 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D10" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1029,6 +1327,7 @@
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -1038,6 +1337,7 @@
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
@@ -1045,6 +1345,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1056,6 +1357,7 @@
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1065,6 +1367,7 @@
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1074,8 +1377,9 @@
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1083,15 +1387,17 @@
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1101,8 +1407,9 @@
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1417,9 @@
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1119,8 +1427,9 @@
       <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1128,15 +1437,17 @@
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1146,8 +1457,9 @@
       <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1155,8 +1467,9 @@
       <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1477,9 @@
       <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1173,15 +1487,17 @@
       <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -1191,8 +1507,9 @@
       <c r="C29" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1200,15 +1517,17 @@
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1216,8 +1535,9 @@
       <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,15 +1545,17 @@
       <c r="C33" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1243,8 +1565,9 @@
       <c r="C35" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1252,8 +1575,9 @@
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -1261,8 +1585,9 @@
       <c r="C37" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1273,7 +1598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -1284,7 +1609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1292,7 +1617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1300,7 +1625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1308,37 +1633,78 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+      <c r="C46" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C10:C12 C14:C17 C19:C22 C24:C27 C29:C30 C32:C33 C35:C42 C1:C8 C46:C1048576 B44:C44 B1:B43 E1">
+  <conditionalFormatting sqref="C10:C12 C14:C17 C19:C22 C24:C27 C29:C30 C32:C33 C35:C42 C1:C8 C48:C1048576 B46:C46 B1:B42 B45 D1:E1">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"否"</formula>
     </cfRule>
@@ -1346,7 +1712,7 @@
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
+  <conditionalFormatting sqref="C23">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"否"</formula>
     </cfRule>
@@ -1354,7 +1720,7 @@
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C28">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"否"</formula>
     </cfRule>
@@ -1362,7 +1728,7 @@
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C31">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"否"</formula>
     </cfRule>
@@ -1370,7 +1736,7 @@
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C34">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"否"</formula>
     </cfRule>
@@ -1378,7 +1744,7 @@
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="B48:B1048576">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
@@ -1386,7 +1752,7 @@
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="B43">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"否"</formula>
     </cfRule>
@@ -1394,7 +1760,7 @@
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C44">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"否"</formula>
     </cfRule>
@@ -1402,7 +1768,7 @@
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:B1048576">
+  <conditionalFormatting sqref="B44">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
@@ -1411,12 +1777,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C44 B46:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C46 B48:C1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" location="'更新操作记录（倒序）'!A1"/>
+    <hyperlink ref="D10" location="数据库操作!A1" display="相关链接"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1429,7 +1796,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1444,22 +1811,22 @@
   <sheetData>
     <row r="1" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1467,64 +1834,64 @@
         <v>43217.875</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1543,4 +1910,222 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/deploy/系统部署核对单.xlsx
+++ b/deploy/系统部署核对单.xlsx
@@ -568,87 +568,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1191,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1777,7 +1697,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C46 B48:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C46 B48:C1048576 C47">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/deploy/系统部署核对单.xlsx
+++ b/deploy/系统部署核对单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="128">
   <si>
     <t>暂停所有服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,10 +254,6 @@
     <t>曾军毅</t>
   </si>
   <si>
-    <t>build1145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曾军毅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈小龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行配置文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,6 +425,65 @@
   </si>
   <si>
     <t>/* 处理空表 */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新配置文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄虎</t>
+  </si>
+  <si>
+    <t>build1142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web,latex,solr,redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web,latex,redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web,redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build1142.sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build1152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build1152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build1152.sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build1156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build1156.sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,7 +1162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -1135,7 +1186,7 @@
         <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>51</v>
@@ -1236,7 +1287,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1555,7 +1606,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1563,7 +1614,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>35</v>
@@ -1595,7 +1646,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1712,11 +1763,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1724,12 +1775,14 @@
     <col min="1" max="1" width="21.625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
@@ -1743,88 +1796,160 @@
         <v>55</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
-        <v>43217.875</v>
+        <v>43265.875</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
       </c>
       <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>43250.822916666664</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>43208.770833333336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H3" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K12" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B1048576 B1">
       <formula1>"曾军毅,陈小龙,唐剑,鲁建勇,丁康,黄虎,蔡晓萍,陈昭,杨柳"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>$H$2:$H$15</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>$K$3:$K$16</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1847,200 +1972,200 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
